--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0764234813073672</v>
+        <v>0.08321235547467243</v>
       </c>
       <c r="D2">
-        <v>0.04118067692336158</v>
+        <v>0.09117085431152394</v>
       </c>
       <c r="E2">
-        <v>0.1039057806071335</v>
+        <v>0.2059859674144049</v>
       </c>
       <c r="F2">
-        <v>0.05749066430065097</v>
+        <v>0.1657714512502644</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0764234813073672</v>
+        <v>0.08321235547467243</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.5884748080298712</v>
+        <v>0.6066938475926773</v>
       </c>
       <c r="E3">
-        <v>0.5739859166479506</v>
+        <v>0.5592334912673911</v>
       </c>
       <c r="F3">
-        <v>0.8894826733643295</v>
+        <v>0.8581056005566667</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04118067692336158</v>
+        <v>0.09117085431152394</v>
       </c>
       <c r="C4">
-        <v>0.5884748080298712</v>
+        <v>0.6066938475926773</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.26448853094978</v>
+        <v>0.3150742111546252</v>
       </c>
       <c r="F4">
-        <v>0.4915787917185028</v>
+        <v>0.5381626044469465</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1039057806071335</v>
+        <v>0.2059859674144049</v>
       </c>
       <c r="C5">
-        <v>0.5739859166479506</v>
+        <v>0.5592334912673911</v>
       </c>
       <c r="D5">
-        <v>0.26448853094978</v>
+        <v>0.3150742111546252</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.56846679348448</v>
+        <v>0.6665895204122965</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05749066430065097</v>
+        <v>0.1657714512502644</v>
       </c>
       <c r="C6">
-        <v>0.8894826733643295</v>
+        <v>0.8581056005566667</v>
       </c>
       <c r="D6">
-        <v>0.4915787917185028</v>
+        <v>0.5381626044469465</v>
       </c>
       <c r="E6">
-        <v>0.56846679348448</v>
+        <v>0.6665895204122965</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.773100886614063</v>
+        <v>-1.814812619971117</v>
       </c>
       <c r="D2">
-        <v>-2.04354121199373</v>
+        <v>-1.766585135799538</v>
       </c>
       <c r="E2">
-        <v>-1.627236608172776</v>
+        <v>-1.30318658114621</v>
       </c>
       <c r="F2">
-        <v>-1.901083704567029</v>
+        <v>-1.433512956360435</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.773100886614063</v>
+        <v>1.814812619971117</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5411690861465016</v>
+        <v>-0.5222817467614117</v>
       </c>
       <c r="E3">
-        <v>0.5623195290445906</v>
+        <v>0.5929922764256792</v>
       </c>
       <c r="F3">
-        <v>0.1389834512705611</v>
+        <v>0.1808956710451917</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.04354121199373</v>
+        <v>1.766585135799538</v>
       </c>
       <c r="C4">
-        <v>0.5411690861465016</v>
+        <v>0.5222817467614117</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.116280303303685</v>
+        <v>1.028100451762101</v>
       </c>
       <c r="F4">
-        <v>0.6879759731176079</v>
+        <v>0.6253688903479769</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.627236608172776</v>
+        <v>1.30318658114621</v>
       </c>
       <c r="C5">
-        <v>-0.5623195290445906</v>
+        <v>-0.5929922764256792</v>
       </c>
       <c r="D5">
-        <v>-1.116280303303685</v>
+        <v>-1.028100451762101</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.5704423150556923</v>
+        <v>-0.4366937291832719</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.901083704567029</v>
+        <v>1.433512956360435</v>
       </c>
       <c r="C6">
-        <v>-0.1389834512705611</v>
+        <v>-0.1808956710451917</v>
       </c>
       <c r="D6">
-        <v>-0.6879759731176079</v>
+        <v>-0.6253688903479769</v>
       </c>
       <c r="E6">
-        <v>0.5704423150556923</v>
+        <v>0.4366937291832719</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_Block Bootstrapping_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.08321235547467243</v>
+        <v>0.388536650122278</v>
       </c>
       <c r="D2">
-        <v>0.09117085431152394</v>
+        <v>0.8754949300445856</v>
       </c>
       <c r="E2">
-        <v>0.2059859674144049</v>
+        <v>0.7981259687152016</v>
       </c>
       <c r="F2">
-        <v>0.1657714512502644</v>
+        <v>0.298615614599296</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.08321235547467243</v>
+        <v>0.388536650122278</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.6066938475926773</v>
+        <v>0.3641102878143667</v>
       </c>
       <c r="E3">
-        <v>0.5592334912673911</v>
+        <v>0.352275725880276</v>
       </c>
       <c r="F3">
-        <v>0.8581056005566667</v>
+        <v>0.4894566483684544</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.09117085431152394</v>
+        <v>0.8754949300445856</v>
       </c>
       <c r="C4">
-        <v>0.6066938475926773</v>
+        <v>0.3641102878143667</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.3150742111546252</v>
+        <v>0.7132880379075108</v>
       </c>
       <c r="F4">
-        <v>0.5381626044469465</v>
+        <v>0.3311244288424136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2059859674144049</v>
+        <v>0.7981259687152016</v>
       </c>
       <c r="C5">
-        <v>0.5592334912673911</v>
+        <v>0.352275725880276</v>
       </c>
       <c r="D5">
-        <v>0.3150742111546252</v>
+        <v>0.7132880379075108</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6665895204122965</v>
+        <v>0.3515904534419985</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1657714512502644</v>
+        <v>0.298615614599296</v>
       </c>
       <c r="C6">
-        <v>0.8581056005566667</v>
+        <v>0.4894566483684544</v>
       </c>
       <c r="D6">
-        <v>0.5381626044469465</v>
+        <v>0.3311244288424136</v>
       </c>
       <c r="E6">
-        <v>0.6665895204122965</v>
+        <v>0.3515904534419985</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.814812619971117</v>
+        <v>0.8734662760895164</v>
       </c>
       <c r="D2">
-        <v>-1.766585135799538</v>
+        <v>0.1578676934385254</v>
       </c>
       <c r="E2">
-        <v>-1.30318658114621</v>
+        <v>-0.2577860601245529</v>
       </c>
       <c r="F2">
-        <v>-1.433512956360435</v>
+        <v>1.055553017678337</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.814812619971117</v>
+        <v>-0.8734662760895164</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.5222817467614117</v>
+        <v>-0.9198914748715983</v>
       </c>
       <c r="E3">
-        <v>0.5929922764256792</v>
+        <v>-0.9431152151707888</v>
       </c>
       <c r="F3">
-        <v>0.1808956710451917</v>
+        <v>0.6987565822285892</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.766585135799538</v>
+        <v>-0.1578676934385254</v>
       </c>
       <c r="C4">
-        <v>0.5222817467614117</v>
+        <v>0.9198914748715983</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.028100451762101</v>
+        <v>-0.3705274145227666</v>
       </c>
       <c r="F4">
-        <v>0.6253688903479769</v>
+        <v>0.9859457936295628</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.30318658114621</v>
+        <v>0.2577860601245529</v>
       </c>
       <c r="C5">
-        <v>-0.5929922764256792</v>
+        <v>0.9431152151707888</v>
       </c>
       <c r="D5">
-        <v>-1.028100451762101</v>
+        <v>0.3705274145227666</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.4366937291832719</v>
+        <v>0.9444756111158454</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.433512956360435</v>
+        <v>-1.055553017678337</v>
       </c>
       <c r="C6">
-        <v>-0.1808956710451917</v>
+        <v>-0.6987565822285892</v>
       </c>
       <c r="D6">
-        <v>-0.6253688903479769</v>
+        <v>-0.9859457936295628</v>
       </c>
       <c r="E6">
-        <v>0.4366937291832719</v>
+        <v>-0.9444756111158454</v>
       </c>
       <c r="F6">
         <v>0</v>
